--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_Ext_rows(1)/aptrans_anon.608407-20_12_01 NOV 945.74.XLSX
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_Ext_rows(1)/aptrans_anon.608407-20_12_01 NOV 945.74.XLSX
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>REFNO</t>
   </si>
@@ -231,7 +231,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1161520</t>
+    <t>1178489</t>
   </si>
   <si>
     <t>101001</t>
@@ -240,43 +240,40 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>8,000.00</t>
-  </si>
-  <si>
-    <t>ILIM Test 2</t>
-  </si>
-  <si>
-    <t>1158565</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>7,433.97</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1155233</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
   <si>
     <t>Annually</t>
@@ -527,10 +524,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -562,7 +559,7 @@
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -676,11 +673,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="28" t="s">
@@ -1990,31 +1990,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="33" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2041,10 +2041,10 @@
         <v>73</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -2052,7 +2052,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>70</v>
@@ -2061,19 +2061,19 @@
         <v>71</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -2081,7 +2081,7 @@
         <v>68</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>70</v>
@@ -2090,106 +2090,106 @@
         <v>71</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F15" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="H15" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>86</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>87</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="G16" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="H16" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>90</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="28" t="s">
+      <c r="H17" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>94</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="28" t="s">
+      <c r="H18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>98</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
@@ -2197,28 +2197,28 @@
         <v>68</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>101</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="G19" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="H19" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="I19" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
@@ -2226,28 +2226,28 @@
         <v>68</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="G20" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="28" t="s">
+      <c r="I20" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -2255,28 +2255,28 @@
         <v>68</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="28" t="s">
+      <c r="I21" s="28" t="s">
         <v>114</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
